--- a/KMM_results.xlsx
+++ b/KMM_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>x_1</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -161,34 +191,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2.4192036519221274</v>
+        <v>8.928663484618383</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4173141545902</v>
+        <v>8.929431830617672</v>
       </c>
       <c r="D2" t="n">
-        <v>2.417282082310513</v>
+        <v>8.94843502311824</v>
       </c>
       <c r="E2" t="n">
-        <v>2.412452672037565</v>
+        <v>9.014538800290536</v>
       </c>
       <c r="F2" t="n">
-        <v>2.4239058968887464</v>
+        <v>9.23745169947462</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4080867004370177</v>
+        <v>9.13446544656884</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4290621924948903</v>
+        <v>8.782803545488422</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3984255358857522</v>
+        <v>8.748400349134162</v>
       </c>
       <c r="J2" t="n">
-        <v>2.393733892055047</v>
+        <v>8.736415648574841</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3640345388702846</v>
+        <v>9.078584226637798</v>
       </c>
     </row>
     <row r="3">
@@ -196,34 +226,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>1.892724927830266</v>
+        <v>8.596335575841096</v>
       </c>
       <c r="C3" t="n">
-        <v>1.8937678466594199</v>
+        <v>8.594221724790442</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8881200338109383</v>
+        <v>8.6028227251261</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8961228339044598</v>
+        <v>8.545947269759077</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8886523130036588</v>
+        <v>8.760120448579283</v>
       </c>
       <c r="G3" t="n">
-        <v>1.9016363505719975</v>
+        <v>8.34021247206643</v>
       </c>
       <c r="H3" t="n">
-        <v>1.936878646203892</v>
+        <v>8.136951648631747</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9153166324828101</v>
+        <v>8.165521567245067</v>
       </c>
       <c r="J3" t="n">
-        <v>1.9349402288697086</v>
+        <v>8.18905543299544</v>
       </c>
       <c r="K3" t="n">
-        <v>1.970661577627918</v>
+        <v>8.718245911892474</v>
       </c>
     </row>
     <row r="4">
@@ -231,34 +261,34 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>1.4904173101007834</v>
+        <v>7.782302567883518</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4886536280747182</v>
+        <v>7.779587497265707</v>
       </c>
       <c r="D4" t="n">
-        <v>1.4911568589517208</v>
+        <v>7.793137561798126</v>
       </c>
       <c r="E4" t="n">
-        <v>1.4921870292288353</v>
+        <v>7.823839424719708</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4906280240402852</v>
+        <v>7.8997585465744695</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4967799720727402</v>
+        <v>8.04247296265012</v>
       </c>
       <c r="H4" t="n">
-        <v>1.492457425914631</v>
+        <v>7.826271782455296</v>
       </c>
       <c r="I4" t="n">
-        <v>1.517545290256422</v>
+        <v>7.843687649480664</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5171655869670486</v>
+        <v>7.81948039397465</v>
       </c>
       <c r="K4" t="n">
-        <v>1.5663784035289738</v>
+        <v>8.1931050143459</v>
       </c>
     </row>
     <row r="5">
@@ -266,34 +296,34 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>1.3231147950116582</v>
+        <v>3.366670252351104</v>
       </c>
       <c r="C5" t="n">
-        <v>1.3224393888013848</v>
+        <v>3.366689031541826</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3228936009706398</v>
+        <v>3.364513072469295</v>
       </c>
       <c r="E5" t="n">
-        <v>1.3216236838661262</v>
+        <v>3.3984384010990665</v>
       </c>
       <c r="F5" t="n">
-        <v>1.3257971242464872</v>
+        <v>3.5533827405116374</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3114142579881602</v>
+        <v>3.0946961786195466</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2956749823116442</v>
+        <v>3.31151211121525</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3084101030658897</v>
+        <v>3.3193958050967574</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2958286159279502</v>
+        <v>3.321259067838127</v>
       </c>
       <c r="K5" t="n">
-        <v>1.3557190307303089</v>
+        <v>3.17863230844602</v>
       </c>
     </row>
     <row r="6">
@@ -301,34 +331,34 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>1.1719810782561622</v>
+        <v>2.821008699987907</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1713640859084353</v>
+        <v>2.82066106315831</v>
       </c>
       <c r="D6" t="n">
-        <v>1.1706102305369586</v>
+        <v>2.8006621395287787</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1726255156445409</v>
+        <v>2.796627307147406</v>
       </c>
       <c r="F6" t="n">
-        <v>1.1716443423721916</v>
+        <v>2.762579288126979</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1965235240008134</v>
+        <v>2.845664155194599</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2251719806372299</v>
+        <v>2.8791034656670416</v>
       </c>
       <c r="I6" t="n">
-        <v>1.224991158855004</v>
+        <v>2.789459229356577</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2558654909287394</v>
+        <v>2.799247546118187</v>
       </c>
       <c r="K6" t="n">
-        <v>1.2934055874219328</v>
+        <v>2.735945163612704</v>
       </c>
     </row>
     <row r="7">
@@ -336,34 +366,34 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6474087820187295</v>
+        <v>2.302821808313442</v>
       </c>
       <c r="C7" t="n">
-        <v>0.643570226573571</v>
+        <v>2.312049128531977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6469822041566964</v>
+        <v>2.3409071660045773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.641080067831264</v>
+        <v>2.3462490753133025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6479493252334586</v>
+        <v>2.3516870902678213</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6509277953981385</v>
+        <v>2.5253387715655538</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6444082857549296</v>
+        <v>2.62419418230105</v>
       </c>
       <c r="I7" t="n">
-        <v>0.657665575581325</v>
+        <v>2.642772113859289</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6468830826722856</v>
+        <v>2.681517546534732</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6691133406613631</v>
+        <v>2.6927359908586634</v>
       </c>
     </row>
     <row r="8">
@@ -371,34 +401,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5470701727087821</v>
+        <v>2.084084361311259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5503699566958832</v>
+        <v>2.088585334477391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.548593518923517</v>
+        <v>2.076402348994158</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5489830239852846</v>
+        <v>2.0417513249872123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5466319172547329</v>
+        <v>2.069862384513333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5435795012395546</v>
+        <v>2.2488899783239695</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5386873889481147</v>
+        <v>2.287531299881269</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5439726945204024</v>
+        <v>2.324194242794363</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5727066315338021</v>
+        <v>2.3582592843194665</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5459762672806249</v>
+        <v>2.3619950966718797</v>
       </c>
     </row>
     <row r="9">
@@ -406,34 +436,34 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21963514413301832</v>
+        <v>1.755855504008588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22071168645933753</v>
+        <v>1.7498682537308263</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22137018535063263</v>
+        <v>1.7432782133750813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.22590563549403558</v>
+        <v>1.6769644135901942</v>
       </c>
       <c r="F9" t="n">
-        <v>0.22039387914789765</v>
+        <v>1.7038689031125942</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2411722094188879</v>
+        <v>1.6357864133340705</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2528436598384519</v>
+        <v>1.617381909400824</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2599195778308644</v>
+        <v>1.5083119556527653</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3037478333452879</v>
+        <v>1.4814689067931375</v>
       </c>
       <c r="K9" t="n">
-        <v>0.40059477203338806</v>
+        <v>1.7090420478227806</v>
       </c>
     </row>
     <row r="10">
@@ -441,34 +471,34 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2027865329875827</v>
+        <v>1.541799695665277</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2039486831436909</v>
+        <v>1.5447905745482482</v>
       </c>
       <c r="D10" t="n">
-        <v>0.20637561263550475</v>
+        <v>1.5688489460124744</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1987873920733284</v>
+        <v>1.6088664356244302</v>
       </c>
       <c r="F10" t="n">
-        <v>0.20612207237059227</v>
+        <v>1.5370627144791151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.17619949021080777</v>
+        <v>1.6069636318850438</v>
       </c>
       <c r="H10" t="n">
-        <v>0.12697267749960395</v>
+        <v>1.50404736681244</v>
       </c>
       <c r="I10" t="n">
-        <v>0.15362902561715833</v>
+        <v>1.4964379076920362</v>
       </c>
       <c r="J10" t="n">
-        <v>0.13968480111918802</v>
+        <v>1.381493556146352</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07618021375763026</v>
+        <v>1.5176343828679801</v>
       </c>
     </row>
     <row r="11">
@@ -476,34 +506,384 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03284769852642659</v>
+        <v>1.4796460566705387</v>
       </c>
       <c r="C11" t="n">
-        <v>0.035946239051412865</v>
+        <v>1.4736547124226074</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03524462467551972</v>
+        <v>1.502060821766876</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04146033400144416</v>
+        <v>1.434139674067363</v>
       </c>
       <c r="F11" t="n">
-        <v>0.034752807371674195</v>
+        <v>1.4226284858717384</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03995178980931852</v>
+        <v>1.5059647628689294</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04334498689513999</v>
+        <v>1.4856696549818604</v>
       </c>
       <c r="I11" t="n">
-        <v>0.050222574427105995</v>
+        <v>1.384996459738067</v>
       </c>
       <c r="J11" t="n">
-        <v>0.051116440597297745</v>
+        <v>1.3353275651732526</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03255961495934628</v>
+        <v>1.3048056942586228</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0116580135619273</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.005838659656361</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0073901257193953</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.057385576950407</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.769751758663469</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.1506658764424</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.270547572011214</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.2831937637368274</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.3054437108969974</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.2771899857249358</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.01127256994209737</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.006668434275834275</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.033381379022802846</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.06235449108475455</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3127786105482535</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.33099251727445667</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.32429474761002286</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.29483838195436096</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3313923518091073</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3953201214799677</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.14403339603244286</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.144465702888796</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.15241217385709824</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.11689742248721884</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02182521355048825</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.07301087937348982</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.08959695467259642</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.14407395298718426</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.16185545928646355</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1666505387999299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.5599544961788527</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.5597597240953778</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.564962278976977</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.5199891215137682</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.4113348539205955</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.3542367497534842</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.19297829646507697</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.2180276514197055</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.2639935498091429</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.27458886064131816</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.7802870254010755</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.7740835228380636</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.780039295558209</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.7917009919827633</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.501795975109017</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.8156918706621005</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.8766237378311559</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.6669450351812307</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.6557319078218539</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.7517436716481855</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.7798113078746993</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.779427863008478</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.7724073675191323</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.7670553553689603</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.98071917410617</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.7447461915152416</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1.6298196854480416</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1.6393541671541993</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.6258152158662087</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-1.95361891753357</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-3.29642497255254</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.2985540670925566</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-3.316048250088865</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-3.299431150004877</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3.2764363854623086</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-3.503168962938518</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-3.2697698306862044</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3.272746526548153</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-3.264451279847981</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-3.738910226782398</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-4.02431660696613</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.020783634891098</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.033416017422345</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3.995801840819743</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-4.182552568726373</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-4.0210313216754745</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-3.8770662661642428</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.858648581358512</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-3.8413738930232633</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-3.844007643016627</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-5.157775106768383</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-5.163300612230084</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-5.184356526747233</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-5.215280318941806</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-5.319585930099651</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-5.380706943030341</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-5.243645325716648</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-5.259836062657023</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-5.244709848172491</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-5.919420500448913</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-6.572915183477027</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.571453378702193</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-6.606147088397293</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-6.568967214480708</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-6.730350627652399</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-6.71553387455136</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-7.050000851757543</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-7.0297233037309</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-7.00613646927726</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-6.847601817667515</v>
       </c>
     </row>
   </sheetData>
@@ -557,34 +937,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="D2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="3">
@@ -592,34 +972,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="E3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
@@ -627,34 +1007,34 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
@@ -662,31 +1042,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="H5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="I5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="K5" t="n">
         <v>6.0</v>
@@ -697,34 +1077,34 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K6" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -732,34 +1112,34 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
@@ -767,34 +1147,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="K8" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -802,34 +1182,34 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
@@ -837,34 +1217,34 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
@@ -872,33 +1252,383 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
         <v>10.0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C18" t="n">
         <v>10.0</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D18" t="n">
         <v>10.0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E18" t="n">
         <v>10.0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F18" t="n">
         <v>10.0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G18" t="n">
         <v>10.0</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H18" t="n">
         <v>10.0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I18" t="n">
         <v>10.0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J18" t="n">
         <v>10.0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K18" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.0</v>
       </c>
     </row>
